--- a/MaxDrawdowntotal.xlsx
+++ b/MaxDrawdowntotal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Matlab\MATLAB Production Server\R2015a\bin\Gouldii_root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{16073115-8130-4561-85B2-64C361470B18}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A56FE738-6493-4196-8E1A-5D9582C383E2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7848" xr2:uid="{7613E00B-9B0F-4F8A-A508-0BAE6A1EF6B3}"/>
   </bookViews>
@@ -381,79 +381,79 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>0.35015878244632659</v>
+        <v>0.39944197224830497</v>
       </c>
       <c r="B1">
-        <v>1652</v>
+        <v>2271</v>
       </c>
       <c r="C1">
-        <v>2409</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0.28095280645254</v>
+        <v>0.27546908988425073</v>
       </c>
       <c r="B2">
-        <v>1411</v>
+        <v>43</v>
       </c>
       <c r="C2">
-        <v>1424</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.28077653084234672</v>
+        <v>0.29145754275098834</v>
       </c>
       <c r="B3">
-        <v>1411</v>
+        <v>43</v>
       </c>
       <c r="C3">
-        <v>1424</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0.28077653084234672</v>
+        <v>0.25458803429973081</v>
       </c>
       <c r="B4">
-        <v>1411</v>
+        <v>43</v>
       </c>
       <c r="C4">
-        <v>1424</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.33699233657422367</v>
+        <v>0.22679957745195065</v>
       </c>
       <c r="B5">
-        <v>2704</v>
+        <v>43</v>
       </c>
       <c r="C5">
-        <v>2778</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.33701645421881238</v>
+        <v>0.68518462906191435</v>
       </c>
       <c r="B6">
-        <v>2704</v>
+        <v>611</v>
       </c>
       <c r="C6">
-        <v>2778</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0.33701266061124252</v>
+        <v>0.74263256489690255</v>
       </c>
       <c r="B7">
-        <v>2704</v>
+        <v>611</v>
       </c>
       <c r="C7">
-        <v>2778</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
